--- a/URS/DbLayouts/L6-共同作業/AcAcctCheckDetail.xlsx
+++ b/URS/DbLayouts/L6-共同作業/AcAcctCheckDetail.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42B6C748-320D-4D6E-A60C-0A092B8F5B33}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B5C0DBC-1237-4FAC-8693-DD2B736E0A95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="72">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -270,10 +270,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>AcDate,BranchNo,CurrencyCode,AcctCode,CustNo,FacmNo,BormNo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>AcDate ASC,BranchNo ASC,CurrencyCode ASC,AcctCode ASC,CustNo ASC,FacmNo ASC,BormNo ASC</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -288,6 +284,22 @@
   <si>
     <t>Usp_L6_AcAcctCheckDetail_Ins</t>
     <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>AcSubBookCode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>區隔帳冊</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AcDate,BranchNo,CurrencyCode,AcctCode,CustNo,FacmNo,BormNo,AcSubBookCode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -944,10 +956,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -989,13 +1001,13 @@
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
     </row>
-    <row r="3" spans="1:7" ht="32.4">
+    <row r="3" spans="1:7" ht="48.6">
       <c r="A3" s="38" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="38"/>
       <c r="C3" s="12" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>18</v>
@@ -1285,7 +1297,7 @@
         <v>16</v>
       </c>
       <c r="G19" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="29" customFormat="1">
@@ -1359,6 +1371,23 @@
       <c r="E23" s="31"/>
       <c r="F23" s="32"/>
       <c r="G23" s="32"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="16">
+        <v>16</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="D24" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="E24" s="16">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1411,7 +1440,7 @@
         <v>49</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1426,7 +1455,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -1449,13 +1478,13 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B2" t="s">
         <v>48</v>
       </c>
       <c r="C2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
